--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P17_trail10 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P17_trail10 Features.xlsx
@@ -3003,7 +3003,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3014,29 +3014,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3057,115 +3055,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3182,72 +3170,66 @@
         <v>2.323679850768555e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.1808354497281638</v>
+        <v>7.626514560230867e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.231978376276594</v>
+        <v>2.406531229313662e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>7.626514560230867e-07</v>
+        <v>-0.0258500173045882</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.406531229313662e-06</v>
+        <v>0.2076813780039234</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.0258500173045882</v>
+        <v>0.04377131138788521</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2076813780039234</v>
+        <v>1.736988596922404</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.04377131138788521</v>
+        <v>1.561528744146137</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.660300874686348</v>
+        <v>4.107911936780612</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.561528744146137</v>
+        <v>1.917246626740372e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.107911936780612</v>
+        <v>75757726.3189532</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.917246626740372e-15</v>
+        <v>1.507894911267686e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>75757726.3189532</v>
+        <v>11.00352529533333</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.507894911267686e-06</v>
+        <v>0.0001410726267841729</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>11.00352529533333</v>
+        <v>7.332520895199442</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001410726267841729</v>
+        <v>1.642927670469969</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>7.332520895199442</v>
+        <v>0.007584891479378261</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.642927670469969</v>
+        <v>3.022224465031339</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.007584891479378261</v>
+        <v>0.9524933789851556</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.022224465031339</v>
+        <v>1.737685166178</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9524933789851556</v>
+        <v>23</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.737685166178</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1988287876219304</v>
       </c>
     </row>
@@ -3262,72 +3244,66 @@
         <v>2.368957636255796e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.1733544815297212</v>
+        <v>7.753797091314068e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.25611736886874</v>
+        <v>2.401503632459546e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>7.753797091314068e-07</v>
+        <v>-0.01811178711901863</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.401503632459546e-06</v>
+        <v>0.1942440733532849</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.01811178711901863</v>
+        <v>0.03805186263922888</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1942440733532849</v>
+        <v>1.739976950597449</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.03805186263922888</v>
+        <v>1.533583385946018</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.665128593744529</v>
+        <v>4.653323440045386</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.533583385946018</v>
+        <v>1.494148460161973e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.653323440045386</v>
+        <v>99800203.91045485</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.494148460161973e-15</v>
+        <v>1.14801188946976e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>99800203.91045485</v>
+        <v>14.88183924184322</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.14801188946976e-06</v>
+        <v>0.00013617430268818</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>14.88183924184322</v>
+        <v>6.792795008864508</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.00013617430268818</v>
+        <v>2.177083348730335</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>6.792795008864508</v>
+        <v>0.006283363394212854</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>2.177083348730335</v>
+        <v>3.206953996865781</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.006283363394212854</v>
+        <v>0.9526373151614896</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.206953996865781</v>
+        <v>1.740514117216486</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9526373151614896</v>
+        <v>23</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.740514117216486</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2384409741144588</v>
       </c>
     </row>
@@ -3342,72 +3318,66 @@
         <v>2.41111367426837e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.1541854798179617</v>
+        <v>7.897171038597814e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.27052114147223</v>
+        <v>2.397535100712474e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>7.897171038597814e-07</v>
+        <v>-0.01597529446201591</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.397535100712474e-06</v>
+        <v>0.189599589529207</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.01597529446201591</v>
+        <v>0.03620298398163199</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.189599589529207</v>
+        <v>1.746086527929675</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.03620298398163199</v>
+        <v>1.55865247470426</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.673854671237838</v>
+        <v>5.818156035616505</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.55865247470426</v>
+        <v>7.733454758061815e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>5.818156035616505</v>
+        <v>197676626.2455603</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>7.733454758061815e-16</v>
+        <v>5.826331993036872e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>197676626.2455603</v>
+        <v>30.21928536921819</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>5.826331993036872e-07</v>
+        <v>0.0001104091363889831</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>30.21928536921819</v>
+        <v>7.902835975650645</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001104091363889831</v>
+        <v>1.285603838304504</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>7.902835975650645</v>
+        <v>0.006895582348464431</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.285603838304504</v>
+        <v>3.312273777115312</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.006895582348464431</v>
+        <v>0.9530792286990771</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.312273777115312</v>
+        <v>1.752403305382482</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9530792286990771</v>
+        <v>34</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.752403305382482</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.3068429888917824</v>
       </c>
     </row>
@@ -3422,72 +3392,66 @@
         <v>2.455032216392807e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.134780635417271</v>
+        <v>8.039188152471077e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.284029502311374</v>
+        <v>2.393424989711673e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>8.039188152471077e-07</v>
+        <v>-0.01849624801818403</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.393424989711673e-06</v>
+        <v>0.1852978681270981</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.01849624801818403</v>
+        <v>0.034673568803668</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1852978681270981</v>
+        <v>1.815328998919859</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.034673568803668</v>
+        <v>2.011265668790063</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.757921193890699</v>
+        <v>4.498471553418693</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.011265668790063</v>
+        <v>5.781400825561785e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.498471553418693</v>
+        <v>264104560.6941626</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>5.781400825561785e-16</v>
+        <v>4.44327061241006e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>264104560.6941626</v>
+        <v>40.32597549917715</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>4.44327061241006e-07</v>
+        <v>0.0001041662762286474</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>40.32597549917715</v>
+        <v>8.90725563155466</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001041662762286474</v>
+        <v>1.156674598985273</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.90725563155466</v>
+        <v>0.008264469323569425</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.156674598985273</v>
+        <v>3.340393959274492</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.008264469323569425</v>
+        <v>0.9574156720493725</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.340393959274492</v>
+        <v>1.619236367674186</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9574156720493725</v>
+        <v>31</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.619236367674186</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.342920817106234</v>
       </c>
     </row>
@@ -3502,72 +3466,66 @@
         <v>2.504644881505115e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.1252584256380975</v>
+        <v>8.170283891137878e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.305152716726379</v>
+        <v>2.388152872110233e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>8.170283891137878e-07</v>
+        <v>-0.0243591890182829</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.388152872110233e-06</v>
+        <v>0.1760987908547327</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.0243591890182829</v>
+        <v>0.03159403248116339</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1760987908547327</v>
+        <v>1.84132003291767</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.03159403248116339</v>
+        <v>1.72105488129205</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.790614598224864</v>
+        <v>5.149353629853084</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.72105488129205</v>
+        <v>4.398906800820715e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>5.149353629853084</v>
+        <v>358678197.2476618</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>4.398906800820715e-16</v>
+        <v>3.327379606221044e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>358678197.2476618</v>
+        <v>56.5919576267484</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>3.327379606221044e-07</v>
+        <v>0.0001267845868298432</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>56.5919576267484</v>
+        <v>8.692425273336577</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001267845868298432</v>
+        <v>1.328951931956614</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.692425273336577</v>
+        <v>0.009579622412132194</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.328951931956614</v>
+        <v>3.260733538860869</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.009579622412132194</v>
+        <v>0.9572434937241</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.260733538860869</v>
+        <v>1.589531607073964</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9572434937241</v>
+        <v>31</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.589531607073964</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.3046812827791602</v>
       </c>
     </row>
@@ -3582,72 +3540,66 @@
         <v>2.556478116070214e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.1356367183705465</v>
+        <v>8.285030999330603e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.326023038596217</v>
+        <v>2.381092902492926e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>8.285030999330603e-07</v>
+        <v>-0.03132788363062951</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.381092902492926e-06</v>
+        <v>0.1633426939330108</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.03132788363062951</v>
+        <v>0.02765180403396127</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1633426939330108</v>
+        <v>1.86078387245836</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.02765180403396127</v>
+        <v>1.91415896405843</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.820678913031955</v>
+        <v>4.148312154103657</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.91415896405843</v>
+        <v>3.193312315435166e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.148312154103657</v>
+        <v>492402007.8629993</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>3.193312315435166e-16</v>
+        <v>2.428718054054505e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>492402007.8629993</v>
+        <v>77.42496652689897</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>2.428718054054505e-07</v>
+        <v>0.0001457851907218159</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>77.42496652689897</v>
+        <v>8.173191220227336</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001457851907218159</v>
+        <v>1.453362758049481</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.173191220227336</v>
+        <v>0.009738604503123726</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.453362758049481</v>
+        <v>3.1234558832826</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.009738604503123726</v>
+        <v>0.9560224146483839</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.1234558832826</v>
+        <v>1.541396935711824</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9560224146483839</v>
+        <v>31</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.541396935711824</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2701671929454913</v>
       </c>
     </row>
@@ -3662,72 +3614,66 @@
         <v>2.602291802829046e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.1661309830864152</v>
+        <v>8.377157294329315e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.328193279257223</v>
+        <v>2.372156660455417e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>8.377157294329315e-07</v>
+        <v>-0.03775862566574367</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.372156660455417e-06</v>
+        <v>0.1511240938743302</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.03775862566574367</v>
+        <v>0.02425537761395326</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1511240938743302</v>
+        <v>1.871128377108974</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.02425537761395326</v>
+        <v>2.234051890440245</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.833342073247716</v>
+        <v>4.020179217368856</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.234051890440245</v>
+        <v>3.400113585831519e-16</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.020179217368856</v>
+        <v>453176761.0134228</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>3.400113585831519e-16</v>
+        <v>2.642010638552942e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>453176761.0134228</v>
+        <v>69.82785278856039</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>2.642010638552942e-07</v>
+        <v>0.0001512638018642489</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>69.82785278856039</v>
+        <v>8.745652884621229</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001512638018642489</v>
+        <v>1.341227078107486</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>8.745652884621229</v>
+        <v>0.01156963036773759</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.341227078107486</v>
+        <v>3.036064173081322</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01156963036773759</v>
+        <v>0.9546321203564454</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.036064173081322</v>
+        <v>1.52248878939596</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9546321203564454</v>
+        <v>31</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.52248878939596</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.2667991073480813</v>
       </c>
     </row>
@@ -3742,72 +3688,66 @@
         <v>2.634211714417359e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.2090403495453848</v>
+        <v>8.439746541514186e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.302754123906833</v>
+        <v>2.361480490485652e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>8.439746541514186e-07</v>
+        <v>-0.04356513762014284</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2.361480490485652e-06</v>
+        <v>0.1404356287003093</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.04356513762014284</v>
+        <v>0.02161331554476618</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1404356287003093</v>
+        <v>1.879739852098048</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.02161331554476618</v>
+        <v>2.0649083659071</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.843715941782274</v>
+        <v>4.062124920549854</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.0649083659071</v>
+        <v>4.021055928346665e-16</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.062124920549854</v>
+        <v>384232933.1010459</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>4.021055928346665e-16</v>
+        <v>3.123957146243877e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>384232933.1010459</v>
+        <v>59.36483783806882</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>3.123957146243877e-07</v>
+        <v>0.0001565181216073408</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>59.36483783806882</v>
+        <v>10.73634938241196</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001565181216073408</v>
+        <v>1.156318926810554</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>10.73634938241196</v>
+        <v>0.01804171835972631</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.156318926810554</v>
+        <v>2.919977513384336</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01804171835972631</v>
+        <v>0.9560531367355646</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.919977513384336</v>
+        <v>1.538534575801491</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9560531367355646</v>
+        <v>28</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.538534575801491</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2905710950901959</v>
       </c>
     </row>
@@ -4184,7 +4124,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.521568261301953</v>
+        <v>1.560760254697582</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.312258888134204</v>
@@ -4273,7 +4213,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.514588529830253</v>
+        <v>1.556305990375042</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.372682713971232</v>
@@ -4362,7 +4302,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.514907706606044</v>
+        <v>1.558449682290255</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.334714755096896</v>
@@ -4451,7 +4391,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.521261764024335</v>
+        <v>1.564024003322779</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.254066793021836</v>
@@ -4540,7 +4480,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.534740488723425</v>
+        <v>1.577045392134847</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.242250034285198</v>
@@ -4629,7 +4569,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.54332632950798</v>
+        <v>1.5842079196665</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.988278741553635</v>
@@ -4718,7 +4658,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.531581077191987</v>
+        <v>1.558510920330844</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.063001826994882</v>
@@ -4807,7 +4747,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.526686337094479</v>
+        <v>1.547473183526609</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.196027311762838</v>
@@ -4896,7 +4836,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.538759718037378</v>
+        <v>1.567532648583588</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.405248310119186</v>
@@ -4985,7 +4925,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.558294542148764</v>
+        <v>1.57935712749204</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.514704937065092</v>
@@ -5074,7 +5014,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.560357179345895</v>
+        <v>1.578203332555224</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.251348187136135</v>
@@ -5163,7 +5103,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.572474934921976</v>
+        <v>1.590656065098771</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.512868559993941</v>
@@ -5252,7 +5192,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.517387588607552</v>
+        <v>1.531770109786986</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.904962330865586</v>
@@ -5341,7 +5281,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.310059602199836</v>
+        <v>1.323689654225864</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.513792912975781</v>
@@ -5430,7 +5370,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.302253279236737</v>
+        <v>1.312700191660847</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.522016803267357</v>
@@ -5519,7 +5459,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.316839231278244</v>
+        <v>1.329247549941358</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.516353469142749</v>
@@ -5608,7 +5548,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.313551190008613</v>
+        <v>1.32778119940023</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.526468018179289</v>
@@ -5697,7 +5637,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.308223109747634</v>
+        <v>1.321068715056175</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.514643008056176</v>
@@ -5786,7 +5726,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.308506797678421</v>
+        <v>1.32067229500465</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.520047856042943</v>
@@ -5875,7 +5815,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.30495473882688</v>
+        <v>1.316274841673889</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.517434161552104</v>
@@ -5964,7 +5904,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.303378567419606</v>
+        <v>1.313813456577949</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.516783935214581</v>
@@ -6053,7 +5993,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.300107732322975</v>
+        <v>1.3110868871109</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.514959090959834</v>
@@ -6142,7 +6082,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.292508724284884</v>
+        <v>1.303732589816657</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.511836984194698</v>
@@ -6231,7 +6171,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.288467105903058</v>
+        <v>1.29878935484354</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.515106631500344</v>
@@ -6320,7 +6260,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.288486050022479</v>
+        <v>1.30126624529766</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.511575281576542</v>
@@ -6409,7 +6349,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.285002559399</v>
+        <v>1.297264187521491</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.506514987804433</v>
@@ -6498,7 +6438,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.284797493058766</v>
+        <v>1.298173791039559</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.50378760826862</v>
@@ -6587,7 +6527,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.310775620024564</v>
+        <v>1.321853818633213</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.455206151829945</v>
@@ -6676,7 +6616,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.567742769295008</v>
+        <v>1.587101436403505</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.288492434256947</v>
@@ -6765,7 +6705,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.577461931479418</v>
+        <v>1.605149527308806</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.146423977284605</v>
@@ -6854,7 +6794,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.559837528104974</v>
+        <v>1.592056166681764</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.389219538229789</v>
@@ -6943,7 +6883,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.560913355138047</v>
+        <v>1.591100459675409</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.00243543342586</v>
@@ -7032,7 +6972,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.56122735488803</v>
+        <v>1.593047406190244</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.266457807640303</v>
@@ -7121,7 +7061,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.551662607339997</v>
+        <v>1.585212495120393</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.309117485095272</v>
@@ -7210,7 +7150,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.551518546084523</v>
+        <v>1.584078347431116</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.179042864694279</v>
@@ -7299,7 +7239,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.554954293591943</v>
+        <v>1.589436227738516</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.959094154629955</v>
@@ -7388,7 +7328,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.555905852479219</v>
+        <v>1.590485292934285</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.942342492059077</v>
@@ -7477,7 +7417,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.566582792456555</v>
+        <v>1.597068811119883</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.986774654636925</v>
@@ -7566,7 +7506,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.573701150212548</v>
+        <v>1.60178035760578</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.143571043030289</v>
@@ -7655,7 +7595,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.584180622777006</v>
+        <v>1.610645108826125</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.001952618510576</v>
@@ -7744,7 +7684,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.583246924789081</v>
+        <v>1.609369478449819</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.713470629002358</v>
@@ -7833,7 +7773,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.584732071669885</v>
+        <v>1.611058677475757</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.200884006064609</v>
@@ -7922,7 +7862,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.588891135419217</v>
+        <v>1.61670751727602</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.728331782537233</v>
@@ -8011,7 +7951,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.582983057849779</v>
+        <v>1.608518156022099</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.675489811919922</v>
@@ -8100,7 +8040,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.603208145732308</v>
+        <v>1.618154416199459</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.072898608082813</v>
@@ -8189,7 +8129,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.605362616876194</v>
+        <v>1.622906765044789</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.010145714707785</v>
@@ -8278,7 +8218,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.605659490265199</v>
+        <v>1.621270296828491</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.829531317386536</v>
@@ -8367,7 +8307,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.600847697273579</v>
+        <v>1.613210929525409</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.254527834063647</v>
@@ -8456,7 +8396,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.601290038206561</v>
+        <v>1.615670738612409</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.100291141496316</v>
@@ -8545,7 +8485,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.60518730712618</v>
+        <v>1.621158684719187</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.387027333781602</v>
@@ -8634,7 +8574,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.622411530018579</v>
+        <v>1.636937315983383</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.380539805299459</v>
@@ -8723,7 +8663,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.649680607620531</v>
+        <v>1.657700677663856</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.644613898677476</v>
@@ -8812,7 +8752,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.654458872741235</v>
+        <v>1.667454436078979</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.537589384798462</v>
@@ -9098,7 +9038,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.521973101937971</v>
+        <v>1.512106702131317</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.440364643115184</v>
@@ -9187,7 +9127,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.536059819854858</v>
+        <v>1.521470229281843</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.479006068876042</v>
@@ -9276,7 +9216,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.530341631072783</v>
+        <v>1.513512124351291</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.435755895871047</v>
@@ -9365,7 +9305,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.538533070005824</v>
+        <v>1.526246149570392</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.360856590066188</v>
@@ -9454,7 +9394,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.531555140279129</v>
+        <v>1.514121215642034</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.291082433612005</v>
@@ -9543,7 +9483,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.539411902814174</v>
+        <v>1.522462286885861</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.334151401294146</v>
@@ -9632,7 +9572,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.605963674584498</v>
+        <v>1.582441606126078</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.487363500055039</v>
@@ -9721,7 +9661,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.634341006569077</v>
+        <v>1.612080878487883</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.313832148708303</v>
@@ -9810,7 +9750,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.678790055484553</v>
+        <v>1.64718721456282</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.74216113113256</v>
@@ -9899,7 +9839,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.673051477694214</v>
+        <v>1.648410608119006</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.981307532841043</v>
@@ -9988,7 +9928,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.653693776444666</v>
+        <v>1.629787756139615</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.104360955773464</v>
@@ -10077,7 +10017,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.646626513639372</v>
+        <v>1.621968772032078</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.079215664001206</v>
@@ -10166,7 +10106,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.629836135961583</v>
+        <v>1.603560355940955</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.722033133011255</v>
@@ -10255,7 +10195,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.525475892314664</v>
+        <v>1.523953952901149</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.192478905349019</v>
@@ -10344,7 +10284,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.511417494700503</v>
+        <v>1.512771348913608</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.237510649706814</v>
@@ -10433,7 +10373,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.527749371840896</v>
+        <v>1.535965862243858</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.290361776928425</v>
@@ -10522,7 +10462,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.540800361864719</v>
+        <v>1.549093062491914</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.223016319243256</v>
@@ -10611,7 +10551,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.544934315088514</v>
+        <v>1.556026351826652</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.306339763833042</v>
@@ -10700,7 +10640,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.52455281983131</v>
+        <v>1.540819611394175</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.296634094393318</v>
@@ -10789,7 +10729,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.549805349643674</v>
+        <v>1.570514520996602</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.261397777404714</v>
@@ -10878,7 +10818,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.566574130936146</v>
+        <v>1.587895659177058</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.410695584088878</v>
@@ -10967,7 +10907,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.580532005570925</v>
+        <v>1.609656064284176</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.411078005901836</v>
@@ -11056,7 +10996,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.593060983687927</v>
+        <v>1.625792488982047</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.408304737568805</v>
@@ -11145,7 +11085,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.601864699673734</v>
+        <v>1.632297200391377</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.519210541030247</v>
@@ -11234,7 +11174,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.634864714631693</v>
+        <v>1.666024685872073</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.501557848429988</v>
@@ -11323,7 +11263,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.657981791712217</v>
+        <v>1.693878784267828</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.60123004475976</v>
@@ -11412,7 +11352,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.661296373827089</v>
+        <v>1.699291668124866</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.583289279432975</v>
@@ -11501,7 +11441,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.687921692755038</v>
+        <v>1.721537976561802</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.297039238500143</v>
@@ -11590,7 +11530,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.768644688939565</v>
+        <v>1.790243419862212</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.537085825831988</v>
@@ -11679,7 +11619,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.790398236237928</v>
+        <v>1.809793011335062</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.677872502714238</v>
@@ -11768,7 +11708,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.798898942407378</v>
+        <v>1.814484093368728</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.779985136922563</v>
@@ -11857,7 +11797,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.798713683000063</v>
+        <v>1.818941139144239</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.784970808524339</v>
@@ -11946,7 +11886,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.803584837289045</v>
+        <v>1.825398546277522</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.905049305392326</v>
@@ -12035,7 +11975,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.846487100737902</v>
+        <v>1.853913061212758</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.325282220171855</v>
@@ -12124,7 +12064,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.840872722210549</v>
+        <v>1.849629781601483</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.753646670460836</v>
@@ -12213,7 +12153,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.83672001704776</v>
+        <v>1.846583238129394</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.447471095616876</v>
@@ -12302,7 +12242,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.835661795154925</v>
+        <v>1.84533698913938</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.465504646430562</v>
@@ -12391,7 +12331,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.818156698842673</v>
+        <v>1.832061675545402</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.203603909294385</v>
@@ -12480,7 +12420,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.818538194002186</v>
+        <v>1.832583353950304</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.660396810720361</v>
@@ -12569,7 +12509,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.800748955831373</v>
+        <v>1.813558916814884</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.588850278002152</v>
@@ -12658,7 +12598,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.805136082039968</v>
+        <v>1.808603323398416</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.539118485226069</v>
@@ -12747,7 +12687,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.806631200629189</v>
+        <v>1.807091117383952</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.337550496648349</v>
@@ -12836,7 +12776,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.795121062250547</v>
+        <v>1.798689273999817</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.327910271370136</v>
@@ -12925,7 +12865,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.803653499686869</v>
+        <v>1.792351703171912</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.565535418982535</v>
@@ -13014,7 +12954,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.79444393378292</v>
+        <v>1.789646100415971</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.652613749860093</v>
@@ -13103,7 +13043,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.798977505094199</v>
+        <v>1.796871842719921</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.49243659808932</v>
@@ -13192,7 +13132,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.799801698293389</v>
+        <v>1.795756785256648</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.109121031542652</v>
@@ -13281,7 +13221,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.79150809164663</v>
+        <v>1.786446305386639</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.756827774542412</v>
@@ -13370,7 +13310,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.778052857034445</v>
+        <v>1.775691201704932</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.90859499394012</v>
@@ -13459,7 +13399,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.783102753366234</v>
+        <v>1.779872501941042</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.524336179384229</v>
@@ -13548,7 +13488,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.795999203820831</v>
+        <v>1.792572869840984</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.517653187375326</v>
@@ -13637,7 +13577,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.801192658732735</v>
+        <v>1.800259709641762</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.340204600766055</v>
@@ -13726,7 +13666,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.813414383784959</v>
+        <v>1.808939811271882</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.779878765017718</v>
@@ -14012,7 +13952,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.660737652830569</v>
+        <v>1.67351782350944</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.453804430792511</v>
@@ -14101,7 +14041,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.65180056833893</v>
+        <v>1.665035799610319</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.361803293442029</v>
@@ -14190,7 +14130,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.653277645817824</v>
+        <v>1.663900428713941</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.403628074450572</v>
@@ -14279,7 +14219,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.652208897124123</v>
+        <v>1.660570347803026</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.379817639388522</v>
@@ -14368,7 +14308,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.658474450906817</v>
+        <v>1.666334117317118</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.346256173183646</v>
@@ -14457,7 +14397,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.65393120086448</v>
+        <v>1.65814493834925</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.223483818983085</v>
@@ -14546,7 +14486,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.652134355742818</v>
+        <v>1.634025894189701</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.182824345200336</v>
@@ -14635,7 +14575,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.62305717249983</v>
+        <v>1.600639831574219</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.567729785867164</v>
@@ -14724,7 +14664,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.644031922224247</v>
+        <v>1.62504431539113</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.664214946389673</v>
@@ -14813,7 +14753,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.649310402943305</v>
+        <v>1.627672397763103</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.085994281636827</v>
@@ -14902,7 +14842,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.639521931697815</v>
+        <v>1.619864731233928</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.640266269854287</v>
@@ -14991,7 +14931,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.619886766735433</v>
+        <v>1.595846633421645</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.693936416293254</v>
@@ -15080,7 +15020,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.600250835086513</v>
+        <v>1.578539606869323</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.961915497797084</v>
@@ -15169,7 +15109,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.534509770015404</v>
+        <v>1.523107745790993</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.214773035787035</v>
@@ -15258,7 +15198,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.469493011014243</v>
+        <v>1.455715705304442</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.015991536024251</v>
@@ -15347,7 +15287,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.474248907704194</v>
+        <v>1.475503382227934</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.041856807105249</v>
@@ -15436,7 +15376,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.481636978201625</v>
+        <v>1.489221424531304</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.124893304233758</v>
@@ -15525,7 +15465,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.481400631868627</v>
+        <v>1.492162930468421</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.085786080758052</v>
@@ -15614,7 +15554,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.48532345420913</v>
+        <v>1.500063195832341</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.138118232880212</v>
@@ -15703,7 +15643,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.498426761524422</v>
+        <v>1.514968999422888</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.131099298243224</v>
@@ -15792,7 +15732,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.516816706917568</v>
+        <v>1.537231411749373</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.198091620025025</v>
@@ -15881,7 +15821,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.537644670489768</v>
+        <v>1.561070100049456</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.184001332622776</v>
@@ -15970,7 +15910,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.546606045894481</v>
+        <v>1.571019937017371</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.193784601756195</v>
@@ -16059,7 +15999,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.559012815643239</v>
+        <v>1.582485895858781</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.238355755215307</v>
@@ -16148,7 +16088,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.57259278919171</v>
+        <v>1.598539246202296</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.226490539017663</v>
@@ -16237,7 +16177,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.583516963712968</v>
+        <v>1.61346497072475</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.25172810856349</v>
@@ -16326,7 +16266,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.599472614475231</v>
+        <v>1.630418343384498</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.289045553025945</v>
@@ -16415,7 +16355,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.615505814354222</v>
+        <v>1.643786268017713</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.178246139970036</v>
@@ -16504,7 +16444,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.678902398636199</v>
+        <v>1.7031892748829</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.174402371394149</v>
@@ -16593,7 +16533,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.804438639584535</v>
+        <v>1.817293638315561</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.679516468503792</v>
@@ -16682,7 +16622,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.807469158269294</v>
+        <v>1.815059436449649</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.15605007576383</v>
@@ -16771,7 +16711,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.79930646289133</v>
+        <v>1.809181957861332</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.336694809857883</v>
@@ -16860,7 +16800,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.801066038210161</v>
+        <v>1.810935981314425</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.589722214043494</v>
@@ -16949,7 +16889,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.786103162402659</v>
+        <v>1.801264041697834</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.967203906211782</v>
@@ -17038,7 +16978,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.731581701454744</v>
+        <v>1.751381058447135</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.646254277091145</v>
@@ -17127,7 +17067,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.726464668825535</v>
+        <v>1.74250709650213</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.75004614626942</v>
@@ -17216,7 +17156,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.712129404477388</v>
+        <v>1.73261370993711</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.787350841507113</v>
@@ -17305,7 +17245,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.693693925206949</v>
+        <v>1.711164107627671</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.686835946041183</v>
@@ -17394,7 +17334,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.692484173766232</v>
+        <v>1.70812889004847</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.609587032952303</v>
@@ -17483,7 +17423,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.696489570549783</v>
+        <v>1.710113987311408</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.735566157734365</v>
@@ -17572,7 +17512,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.683891302164349</v>
+        <v>1.696816142906278</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.48440112167297</v>
@@ -17661,7 +17601,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.669135801269963</v>
+        <v>1.684607481434255</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.703682343088249</v>
@@ -17750,7 +17690,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.668325569027737</v>
+        <v>1.682707377260979</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.666892997369635</v>
@@ -17839,7 +17779,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.663216953668186</v>
+        <v>1.673668121717024</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.617814710059614</v>
@@ -17928,7 +17868,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.660943212564065</v>
+        <v>1.671148071711568</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.395574621368742</v>
@@ -18017,7 +17957,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.662194220365574</v>
+        <v>1.670287241609869</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.641267079778185</v>
@@ -18106,7 +18046,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.670351112108878</v>
+        <v>1.672712413758483</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.678852497434482</v>
@@ -18195,7 +18135,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.675994249088719</v>
+        <v>1.671566443287681</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.728769708815493</v>
@@ -18284,7 +18224,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.666428632539315</v>
+        <v>1.661033011933995</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.439485149751953</v>
@@ -18373,7 +18313,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.722314042006627</v>
+        <v>1.714224131363436</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.348290920181108</v>
@@ -18462,7 +18402,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.729803441393187</v>
+        <v>1.723476517641328</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.38325757266269</v>
@@ -18551,7 +18491,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.743760744428994</v>
+        <v>1.735365627760217</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.32366331745405</v>
@@ -18640,7 +18580,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.763686806157848</v>
+        <v>1.755664137365558</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.279661825605939</v>
@@ -18926,7 +18866,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.361271286108454</v>
+        <v>1.369428331273572</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.675999090006646</v>
@@ -19015,7 +18955,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.351552775134911</v>
+        <v>1.358967064982825</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.66495910293682</v>
@@ -19104,7 +19044,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.351650106958153</v>
+        <v>1.358431417890365</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.661719439247035</v>
@@ -19193,7 +19133,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.347443090897577</v>
+        <v>1.353106610442229</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.652835408658157</v>
@@ -19282,7 +19222,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.339223690322615</v>
+        <v>1.344516552074652</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.647146472052104</v>
@@ -19371,7 +19311,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.336830761527795</v>
+        <v>1.34061978920955</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.629943402973303</v>
@@ -19460,7 +19400,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.35004513287217</v>
+        <v>1.346023831337767</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.583116459934666</v>
@@ -19549,7 +19489,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.527273153160275</v>
+        <v>1.510876007443073</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.615530016674085</v>
@@ -19638,7 +19578,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.748817345586817</v>
+        <v>1.750934889211555</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.784629616737786</v>
@@ -19727,7 +19667,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.777566020709226</v>
+        <v>1.783203643160777</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.322127346306648</v>
@@ -19816,7 +19756,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.76655416678574</v>
+        <v>1.776569263923951</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.730842542492812</v>
@@ -19905,7 +19845,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.762729257242538</v>
+        <v>1.774501283007309</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.51460257103975</v>
@@ -19994,7 +19934,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.751137349944899</v>
+        <v>1.762517447943257</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.421311774986824</v>
@@ -20083,7 +20023,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.671316237253672</v>
+        <v>1.694169353060326</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.367234500084734</v>
@@ -20172,7 +20112,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.656599294168747</v>
+        <v>1.680766477207161</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.383737697328429</v>
@@ -20261,7 +20201,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.676442304214199</v>
+        <v>1.698308057043833</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.413603982767464</v>
@@ -20350,7 +20290,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.686962201864166</v>
+        <v>1.711201955174147</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.396564468935991</v>
@@ -20439,7 +20379,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.686039242021599</v>
+        <v>1.711309752503376</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.429919946032244</v>
@@ -20528,7 +20468,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.69419618037058</v>
+        <v>1.716928331148617</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.386478839262319</v>
@@ -20617,7 +20557,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.697133233156416</v>
+        <v>1.719765330050645</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.43709399352172</v>
@@ -20706,7 +20646,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.696803113140533</v>
+        <v>1.719406846545722</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.451571896134432</v>
@@ -20795,7 +20735,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.674395894099033</v>
+        <v>1.697767429051731</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.376597214085636</v>
@@ -20884,7 +20824,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.655591771518138</v>
+        <v>1.676323992852152</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.35408950063555</v>
@@ -20973,7 +20913,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.640633370971015</v>
+        <v>1.660225710169346</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.225571454262204</v>
@@ -21062,7 +21002,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.629914098402602</v>
+        <v>1.646372056077119</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.17742629041149</v>
@@ -21151,7 +21091,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.623910985974264</v>
+        <v>1.635669532371977</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.175601518083794</v>
@@ -21240,7 +21180,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.613966247745208</v>
+        <v>1.625736660477362</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.202571854956024</v>
@@ -21329,7 +21269,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.629024385423565</v>
+        <v>1.63345827244385</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.004984880218451</v>
@@ -21418,7 +21358,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.721012346829799</v>
+        <v>1.716599615186228</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.040417431935606</v>
@@ -21507,7 +21447,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.734894834929638</v>
+        <v>1.728509643510066</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.044189501857353</v>
@@ -21596,7 +21536,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.7080485894347</v>
+        <v>1.697343510672907</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.545879199524655</v>
@@ -21685,7 +21625,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.69392886469344</v>
+        <v>1.678926115566022</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.55759072318259</v>
@@ -21774,7 +21714,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.688129102802676</v>
+        <v>1.671912598429947</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.765896773463089</v>
@@ -21863,7 +21803,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.68126397064124</v>
+        <v>1.675783142489394</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.460225714672759</v>
@@ -21952,7 +21892,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.667307898660317</v>
+        <v>1.662924274626782</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.579583410253934</v>
@@ -22041,7 +21981,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.657064306206541</v>
+        <v>1.649251524631042</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.530403572072667</v>
@@ -22130,7 +22070,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.661396235626815</v>
+        <v>1.65435049923527</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.246748816895179</v>
@@ -22219,7 +22159,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.659352788479315</v>
+        <v>1.65444091745377</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.598085520780035</v>
@@ -22308,7 +22248,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.653546924014042</v>
+        <v>1.649173375162512</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.711794734270875</v>
@@ -22397,7 +22337,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.657100368824681</v>
+        <v>1.653159145032386</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.23299149886544</v>
@@ -22486,7 +22426,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.667319973225566</v>
+        <v>1.65957507783579</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.624717282670782</v>
@@ -22575,7 +22515,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.671240026594967</v>
+        <v>1.660293913766366</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.460655108590303</v>
@@ -22664,7 +22604,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.669096041543866</v>
+        <v>1.659863054157479</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.20682536584964</v>
@@ -22753,7 +22693,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.664311448340225</v>
+        <v>1.644619732131026</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.013316147525298</v>
@@ -22842,7 +22782,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.666437738623427</v>
+        <v>1.648522230223426</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.353496346843998</v>
@@ -22931,7 +22871,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.673230973637565</v>
+        <v>1.654519969304026</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.556483585500362</v>
@@ -23020,7 +22960,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.678629264232588</v>
+        <v>1.653485988907172</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.193252409831066</v>
@@ -23109,7 +23049,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.687694196657691</v>
+        <v>1.661335477791859</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.594913134271031</v>
@@ -23198,7 +23138,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.672303242395877</v>
+        <v>1.646316462917224</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.450761242835139</v>
@@ -23287,7 +23227,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.6811838832912</v>
+        <v>1.655550270021026</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.581103783687338</v>
@@ -23376,7 +23316,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.688475318417432</v>
+        <v>1.663497553809404</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.608730757266332</v>
@@ -23465,7 +23405,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.681315337179342</v>
+        <v>1.650649496608316</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.789047707384051</v>
@@ -23554,7 +23494,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.675134658712278</v>
+        <v>1.64863796049181</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.248574721730992</v>
@@ -23840,7 +23780,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.678408828509653</v>
+        <v>1.698089196994139</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.790161231091587</v>
@@ -23929,7 +23869,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.661109510612763</v>
+        <v>1.676830091346423</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.747676361048513</v>
@@ -24018,7 +23958,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.642755811893288</v>
+        <v>1.661621922076323</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.665184982861255</v>
@@ -24107,7 +24047,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.636729704894312</v>
+        <v>1.655910383052652</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.673839682916273</v>
@@ -24196,7 +24136,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.629772287696961</v>
+        <v>1.650682256216436</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.682919927407981</v>
@@ -24285,7 +24225,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.645062290475215</v>
+        <v>1.668081782263224</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.551029990137656</v>
@@ -24374,7 +24314,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.676336533454234</v>
+        <v>1.691301113488181</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.339112938023513</v>
@@ -24463,7 +24403,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.714830278259787</v>
+        <v>1.732618515966719</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.404205726164039</v>
@@ -24552,7 +24492,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.745311436303094</v>
+        <v>1.759936400753337</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.226951403439672</v>
@@ -24641,7 +24581,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.78001511979523</v>
+        <v>1.791866363399996</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.386694142378495</v>
@@ -24730,7 +24670,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.764793537909321</v>
+        <v>1.77825475872907</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.460887908429315</v>
@@ -24819,7 +24759,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.7468104740624</v>
+        <v>1.761544176616447</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.342454669097004</v>
@@ -24908,7 +24848,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.720708174293639</v>
+        <v>1.737160179767503</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.370253270712788</v>
@@ -24997,7 +24937,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.644757891030969</v>
+        <v>1.674089641938095</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.311935936476383</v>
@@ -25086,7 +25026,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.642949022654733</v>
+        <v>1.668178111586445</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.284755558452919</v>
@@ -25175,7 +25115,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.643313587184311</v>
+        <v>1.668430172618373</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.319716032742767</v>
@@ -25264,7 +25204,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.659501706379345</v>
+        <v>1.685995824181349</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.319809690423878</v>
@@ -25353,7 +25293,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.647063209479624</v>
+        <v>1.67099648977255</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.345011758732259</v>
@@ -25442,7 +25382,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.64623482651918</v>
+        <v>1.669469213108356</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.330534124329518</v>
@@ -25531,7 +25471,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.652436897372877</v>
+        <v>1.677978235568562</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.239105624232042</v>
@@ -25620,7 +25560,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.639621517456997</v>
+        <v>1.666720062577307</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.315062289840189</v>
@@ -25709,7 +25649,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.627195231347734</v>
+        <v>1.654686257530016</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.261836295367583</v>
@@ -25798,7 +25738,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.594499596321368</v>
+        <v>1.622987237471152</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.213231514482736</v>
@@ -25887,7 +25827,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.565930640879304</v>
+        <v>1.592476495264368</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.160163951077578</v>
@@ -25976,7 +25916,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.538847112746903</v>
+        <v>1.563136413059199</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.115752064990817</v>
@@ -26065,7 +26005,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.527666263883836</v>
+        <v>1.550301761640926</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.097308530691799</v>
@@ -26154,7 +26094,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.522671959328405</v>
+        <v>1.542273919815594</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.014003076883657</v>
@@ -26243,7 +26183,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.530576081603348</v>
+        <v>1.549543873943366</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.961393704771673</v>
@@ -26332,7 +26272,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.612311763686368</v>
+        <v>1.620246567212338</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.138595192601463</v>
@@ -26421,7 +26361,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.615322055485554</v>
+        <v>1.623345198011567</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.991288096519942</v>
@@ -26510,7 +26450,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.597824830633165</v>
+        <v>1.605212433958038</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.822844584285666</v>
@@ -26599,7 +26539,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.541684492475262</v>
+        <v>1.5485416285161</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.503305700610765</v>
@@ -26688,7 +26628,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.543041646018458</v>
+        <v>1.555769587598177</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.473019566774685</v>
@@ -26777,7 +26717,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.535282982069752</v>
+        <v>1.550064268269293</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.784817313285516</v>
@@ -26866,7 +26806,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.528055177339385</v>
+        <v>1.536304597677027</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.664983424112198</v>
@@ -26955,7 +26895,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.529840649232603</v>
+        <v>1.538171752627316</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.716776943181334</v>
@@ -27044,7 +26984,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.52345965607394</v>
+        <v>1.5323540745971</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.775963042746248</v>
@@ -27133,7 +27073,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.525283653965437</v>
+        <v>1.535514812255511</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.752910973784907</v>
@@ -27222,7 +27162,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.510263183794824</v>
+        <v>1.520921174645131</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.705780548716748</v>
@@ -27311,7 +27251,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.51966101440066</v>
+        <v>1.534195753238925</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.821009924183711</v>
@@ -27400,7 +27340,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.521288479864185</v>
+        <v>1.533562761404574</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.802300844904519</v>
@@ -27489,7 +27429,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.521888928414217</v>
+        <v>1.533156756467386</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.844731325179175</v>
@@ -27578,7 +27518,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.513982726144638</v>
+        <v>1.522959123500999</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.671360591262455</v>
@@ -27667,7 +27607,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.511631783097674</v>
+        <v>1.515858334602893</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.664037253093716</v>
@@ -27756,7 +27696,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.512791629392809</v>
+        <v>1.512015209560246</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.503857815849388</v>
@@ -27845,7 +27785,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.512179563890524</v>
+        <v>1.511488035549671</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.415607990867883</v>
@@ -27934,7 +27874,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.535524954417478</v>
+        <v>1.527421986596632</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.765461426588782</v>
@@ -28023,7 +27963,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.531996220375745</v>
+        <v>1.524851079181464</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.86177951977179</v>
@@ -28112,7 +28052,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.537881225640295</v>
+        <v>1.534159335904824</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.875008361523534</v>
@@ -28201,7 +28141,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.539400590815846</v>
+        <v>1.534468102136042</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.764092169096905</v>
@@ -28290,7 +28230,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.531792885555697</v>
+        <v>1.529394532490005</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.237986513231734</v>
@@ -28379,7 +28319,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.53196204601225</v>
+        <v>1.529892157317596</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.992422749403333</v>
@@ -28468,7 +28408,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.54046138483028</v>
+        <v>1.531910278326923</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.904922129085281</v>
@@ -28754,7 +28694,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.514095885053513</v>
+        <v>1.554801848224376</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.970378531372113</v>
@@ -28843,7 +28783,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.501670796135521</v>
+        <v>1.545974819367106</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.970667893124552</v>
@@ -28932,7 +28872,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.501148680738557</v>
+        <v>1.54508554428661</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.948918025290691</v>
@@ -29021,7 +28961,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.501898776364299</v>
+        <v>1.546954679750665</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.957603497438211</v>
@@ -29110,7 +29050,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.493720023103279</v>
+        <v>1.536612133796756</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.92301307754388</v>
@@ -29199,7 +29139,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.506055135109881</v>
+        <v>1.545699651678256</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.756211787976773</v>
@@ -29288,7 +29228,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.603104582423796</v>
+        <v>1.630630388575953</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.265250913596711</v>
@@ -29377,7 +29317,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.603782559490004</v>
+        <v>1.622342338836319</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.044133565906655</v>
@@ -29466,7 +29406,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.643790201600561</v>
+        <v>1.664227336800547</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.533279153442917</v>
@@ -29555,7 +29495,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.646662469410502</v>
+        <v>1.644259901285352</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.162322416423553</v>
@@ -29644,7 +29584,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.563138595859738</v>
+        <v>1.589292784044453</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.169719835549006</v>
@@ -29733,7 +29673,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.552500515594594</v>
+        <v>1.578749731697463</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.077939962163294</v>
@@ -29822,7 +29762,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.53545317984002</v>
+        <v>1.556868188942641</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.035086500508678</v>
@@ -29911,7 +29851,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.491370920348325</v>
+        <v>1.512869368521954</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.070787385715168</v>
@@ -30000,7 +29940,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.450600616172677</v>
+        <v>1.466836337318982</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.042051532211937</v>
@@ -30089,7 +30029,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.491000112454237</v>
+        <v>1.503169229034055</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.025279603683078</v>
@@ -30178,7 +30118,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.495006406001613</v>
+        <v>1.505372599765961</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.027405643248131</v>
@@ -30267,7 +30207,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.491252682528025</v>
+        <v>1.5029055373542</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.031780997099351</v>
@@ -30356,7 +30296,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.495413162385985</v>
+        <v>1.502122059215463</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.02839950954734</v>
@@ -30445,7 +30385,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.495693214411971</v>
+        <v>1.503922639391047</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.050660976880719</v>
@@ -30534,7 +30474,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.492199174606679</v>
+        <v>1.496829934403874</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.982397499082784</v>
@@ -30623,7 +30563,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.478889616261324</v>
+        <v>1.483098396819316</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.033076710320046</v>
@@ -30712,7 +30652,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.463927352376405</v>
+        <v>1.467322487456395</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.976086595170311</v>
@@ -30801,7 +30741,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.443066787241664</v>
+        <v>1.443964149033451</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.950580916539783</v>
@@ -30890,7 +30830,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.494380585531488</v>
+        <v>1.492224875547921</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.948143825945818</v>
@@ -30979,7 +30919,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.503279791064597</v>
+        <v>1.503154499970895</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.168270402503285</v>
@@ -31068,7 +31008,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.499954393176811</v>
+        <v>1.499082002720072</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.281959256289012</v>
@@ -31157,7 +31097,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.493664794437246</v>
+        <v>1.494060739176291</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.063242340743472</v>
@@ -31246,7 +31186,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.538279931485905</v>
+        <v>1.533415312783438</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.351057017834012</v>
@@ -31335,7 +31275,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.536869587963364</v>
+        <v>1.537473277009265</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.025199176719889</v>
@@ -31424,7 +31364,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.523672980005421</v>
+        <v>1.5292758177258</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.773471311670892</v>
@@ -31513,7 +31453,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.507654084718795</v>
+        <v>1.508610139734091</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.912932250802523</v>
@@ -31602,7 +31542,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.504449257931316</v>
+        <v>1.506738666700951</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.814089772403234</v>
@@ -31691,7 +31631,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.499076494731243</v>
+        <v>1.506908100258551</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.838798097243284</v>
@@ -31780,7 +31720,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.49659177824938</v>
+        <v>1.504100604260136</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.75084941331185</v>
@@ -31869,7 +31809,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.492637576341492</v>
+        <v>1.500289990422712</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.8474699693721</v>
@@ -31958,7 +31898,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.486094626772571</v>
+        <v>1.491605076088347</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.846359511888235</v>
@@ -32047,7 +31987,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.484533551355739</v>
+        <v>1.49309833459967</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.586572667886612</v>
@@ -32136,7 +32076,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.503646669538813</v>
+        <v>1.508889620502004</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.891726726749169</v>
@@ -32225,7 +32165,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.512572918208173</v>
+        <v>1.51656015650689</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.594594148256704</v>
@@ -32314,7 +32254,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.52565544385414</v>
+        <v>1.519599280606867</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.631460463872611</v>
@@ -32403,7 +32343,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.530513974805085</v>
+        <v>1.526762688465731</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.590135409982866</v>
@@ -32492,7 +32432,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.488745688235781</v>
+        <v>1.487969025929244</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.285285262733201</v>
@@ -32581,7 +32521,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.49061625867599</v>
+        <v>1.484700441308296</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.293784400529272</v>
@@ -32670,7 +32610,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.504316310619786</v>
+        <v>1.493618456952168</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.151803891728662</v>
@@ -32759,7 +32699,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.500296916151755</v>
+        <v>1.490422081624561</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.232044445614084</v>
@@ -32848,7 +32788,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.503081214329813</v>
+        <v>1.492849262849704</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.20447354630203</v>
@@ -32937,7 +32877,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.500907494751928</v>
+        <v>1.489455745529261</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.153237400351836</v>
@@ -33026,7 +32966,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.504120754358063</v>
+        <v>1.489894230465596</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.157829429157219</v>
@@ -33115,7 +33055,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.504662382585435</v>
+        <v>1.490963486038542</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.154706861496965</v>
@@ -33204,7 +33144,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.504123152717793</v>
+        <v>1.489326150088002</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.143464898576664</v>
@@ -33293,7 +33233,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.508683457637745</v>
+        <v>1.492170770891244</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.136952710050248</v>
@@ -33382,7 +33322,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.516742487015717</v>
+        <v>1.496753494319233</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.166520840795537</v>
